--- a/SG_Mvn_Project/ExecutionController/Controller.xlsx
+++ b/SG_Mvn_Project/ExecutionController/Controller.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F90A9-D650-443F-8B78-CFE6871AB4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5173832C-4383-4E67-86B9-9B0642A2521D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>ProjectName</t>
   </si>
@@ -81,17 +81,13 @@
   </si>
   <si>
     <t>testScripts.UserModuleScripts</t>
-  </si>
-  <si>
-    <t>PASSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,33 +118,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="17"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="gray0625">
@@ -183,16 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,8 +512,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,8 +553,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,16 +596,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,9 +638,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -680,11 +651,9 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -697,11 +666,9 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -723,11 +690,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/SG_Mvn_Project/ExecutionController/Controller.xlsx
+++ b/SG_Mvn_Project/ExecutionController/Controller.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>ProjectName</t>
   </si>
@@ -81,13 +81,17 @@
   </si>
   <si>
     <t>testScripts.UserModuleScripts</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +122,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +137,11 @@
     </fill>
     <fill>
       <patternFill patternType="gray0625">
+        <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <bgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -159,13 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,8 +527,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -553,8 +568,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -601,11 +616,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,7 +653,9 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -690,11 +707,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/SG_Mvn_Project/ExecutionController/Controller.xlsx
+++ b/SG_Mvn_Project/ExecutionController/Controller.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5173832C-4383-4E67-86B9-9B0642A2521D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9575E19D-7B97-4705-A0AE-171A1672DF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>ProjectName</t>
   </si>
@@ -83,7 +83,16 @@
     <t>testScripts.UserModuleScripts</t>
   </si>
   <si>
+    <t>TC_Task_101</t>
+  </si>
+  <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>TS_CreateDeleteTask</t>
+  </si>
+  <si>
+    <t>testScripts.TaskModuleScripts</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +115,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -173,14 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +578,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -593,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -610,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,11 +666,9 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -670,7 +683,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -685,7 +698,7 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -699,17 +712,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.77734375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
@@ -731,7 +744,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{75567357-325C-4970-8C4D-29613A9FAFD0}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SG_Mvn_Project/ExecutionController/Controller.xlsx
+++ b/SG_Mvn_Project/ExecutionController/Controller.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>ProjectName</t>
   </si>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -187,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -196,6 +201,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +763,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
